--- a/outputs-HGR-r202/g__CAG-170.xlsx
+++ b/outputs-HGR-r202/g__CAG-170.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,48 +509,248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT12482.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.003348772622462943</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02561482907617823</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1563315423153565</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1111476368081167</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2415409014109814</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0364326312091677</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2919762893843256</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.00849566242936494</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0138549204665365</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1112568142775095</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2919762893843256</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT13816.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.005166368853465485</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05551070559981375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.138104711592787</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08871325397087725</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2035331943694226</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01622768402720551</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3851883003231993</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01410452368404309</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01763552447438362</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07581573310480245</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3851883003231993</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT14572.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.006821121665635844</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07787963541756186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2233222462259715</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0877770838926507</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1247106121355368</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05034879430889931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3026550840643274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01083547804102059</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02725386423467022</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08839608001372583</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3026550840643274</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT24616.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.004920359458772098</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05033462532352177</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1491743209712766</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05484614587699034</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1430714155036605</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08090454987056554</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3893867455445884</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01633663030853787</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02924039526150313</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.08178481188058367</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3893867455445884</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT46186.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B6" t="n">
         <v>0.08800214535946617</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6" t="n">
         <v>0.02341214598999095</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D6" t="n">
         <v>0.01420779074821071</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E6" t="n">
         <v>0.1168786241211005</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F6" t="n">
         <v>0.07927544270008115</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G6" t="n">
         <v>0.03868281690347925</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H6" t="n">
         <v>0.6194163413130356</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I6" t="n">
         <v>0.005557695235094706</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J6" t="n">
         <v>0.002788275882345349</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K6" t="n">
         <v>0.01177872174719564</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L6" t="n">
         <v>0.6194163413130356</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>s__CAG-170 sp900549635</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>s__CAG-170 sp900549635</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>s__CAG-170 sp900549635</t>
         </is>
